--- a/results/CodeLlama.xlsx
+++ b/results/CodeLlama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xuan\Documents\GitHub\LLM-Vulnerable-Malicious-Prompts\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AAB9E8-F2DD-4A22-BF5B-203BBF20BC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5273441C-9E36-4437-9798-2A429DA11049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9E9B9431-1FB5-4C09-8C30-3C413850B47E}"/>
   </bookViews>
@@ -785,7 +785,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
